--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146594.316847694</v>
+        <v>137194.4876556731</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13187020.77743563</v>
+        <v>13187020.77743564</v>
       </c>
     </row>
     <row r="9">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>37.52930446208636</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33.05581137020565</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>37.52930446208636</v>
       </c>
       <c r="I8" t="n">
-        <v>33.05581137020565</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>33.05581137020564</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>37.52930446208636</v>
-      </c>
-      <c r="T9" t="n">
-        <v>37.52930446208636</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>33.05581137020565</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>33.05581137020565</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>37.52930446208636</v>
       </c>
       <c r="W10" t="n">
-        <v>33.05581137020565</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>37.52930446208636</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.0421087209539</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740963</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>91.13088952452699</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>219.5565574740963</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>29.2714293495911</v>
       </c>
       <c r="G12" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656611</v>
       </c>
       <c r="T12" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>74.50650851513269</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5565574740963</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>219.5565574740963</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="V13" t="n">
-        <v>193.3854158231838</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="W13" t="n">
-        <v>219.5565574740963</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>19.72327283162451</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E14" t="n">
-        <v>199.0421087209539</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740962</v>
+        <v>59.22911908072469</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.90177044380179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>126.1811834407846</v>
+        <v>68.29407661610672</v>
       </c>
     </row>
     <row r="16">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>53.45712097561662</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.6056458928243</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>70.43115541034823</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>202.5041850978177</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>229.9093836260421</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>30.59242657132852</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>101.4806031161403</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="V17" t="n">
-        <v>229.9093836260421</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1583452125301</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.68171585877847</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.75877655668972</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.6775891563252</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>69.78746725487366</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>123.1132689021234</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.7006755992588</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.3966478723306</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>202.504185097817</v>
       </c>
       <c r="V19" t="n">
-        <v>203.3162452522704</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="W19" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="X19" t="n">
-        <v>229.9093836260421</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.5041850978178</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>229.9093836260421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>229.9093836260421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>229.9093836260421</v>
+        <v>117.1817723964588</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>101.4806031161403</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.751193211259</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>83.46445671025023</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.1583452125301</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.75877655668972</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>154.6775891563252</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>195.3271799672243</v>
@@ -2222,13 +2222,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>105.2392580202646</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9391640117447</v>
+        <v>50.62352011837133</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.3966478723306</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="V22" t="n">
-        <v>221.5292707474536</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.466940233317994</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>347.5893333739536</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2487,16 +2487,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>125.3131597031394</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733681</v>
+        <v>31.90652987738995</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
         <v>279.9132448002744</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>226.6620088156979</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>166.1920080638388</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.6564773440758</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>101.7923573531517</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.6944259398202</v>
@@ -2772,13 +2772,13 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>345.043033020653</v>
+        <v>60.58280260576252</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2930,7 +2930,7 @@
         <v>195.2954114342289</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368961</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>157.8752232710645</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9132448002744</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>112.4621568304971</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>197.4730129179004</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>43.75161849872837</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>9.550479808298112</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>83.80004204681616</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>192.5330619920212</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>286.7841060427739</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>60.22316824472488</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098128</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3432,19 +3432,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>3.074025751272843</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>52.79600512105691</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>140.0138705777257</v>
+        <v>34.12252132104579</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810344</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>141.5192565482905</v>
+        <v>212.3231634395255</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.3832887247947</v>
+        <v>334.0294838984183</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
-        <v>205.1728103134938</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>37.26223635691307</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>394.003992030051</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>253.7005301604801</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>127.4342453910678</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>128.3133597028922</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.30044115726187</v>
+        <v>112.2088295028037</v>
       </c>
       <c r="C8" t="n">
         <v>74.30044115726187</v>
       </c>
       <c r="D8" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="E8" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="F8" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="G8" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="H8" t="n">
-        <v>36.39205281172009</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="I8" t="n">
         <v>3.002344356966909</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="C9" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="D9" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="E9" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="F9" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="G9" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250869</v>
       </c>
       <c r="H9" t="n">
         <v>3.002344356966909</v>
@@ -4886,10 +4886,10 @@
         <v>3.002344356966909</v>
       </c>
       <c r="K9" t="n">
-        <v>11.45991954906469</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="L9" t="n">
-        <v>41.59280229228313</v>
+        <v>17.44797966023116</v>
       </c>
       <c r="M9" t="n">
         <v>54.60199107769665</v>
@@ -4910,25 +4910,25 @@
         <v>150.1172178483454</v>
       </c>
       <c r="S9" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483454</v>
       </c>
       <c r="T9" t="n">
-        <v>74.30044115726187</v>
+        <v>116.7275093935923</v>
       </c>
       <c r="U9" t="n">
-        <v>74.30044115726187</v>
+        <v>116.7275093935923</v>
       </c>
       <c r="V9" t="n">
-        <v>40.91073270250869</v>
+        <v>116.7275093935923</v>
       </c>
       <c r="W9" t="n">
-        <v>40.91073270250869</v>
+        <v>116.7275093935923</v>
       </c>
       <c r="X9" t="n">
-        <v>40.91073270250869</v>
+        <v>78.81912104805048</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.91073270250869</v>
+        <v>78.81912104805048</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.002344356966909</v>
+        <v>74.30044115726187</v>
       </c>
       <c r="C10" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172009</v>
       </c>
       <c r="D10" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172009</v>
       </c>
       <c r="E10" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172009</v>
       </c>
       <c r="F10" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172009</v>
       </c>
       <c r="G10" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172009</v>
       </c>
       <c r="H10" t="n">
         <v>3.002344356966909</v>
@@ -4962,25 +4962,25 @@
         <v>3.002344356966909</v>
       </c>
       <c r="J10" t="n">
-        <v>3.002344356966909</v>
+        <v>40.15635577443241</v>
       </c>
       <c r="K10" t="n">
-        <v>3.002344356966909</v>
+        <v>40.15635577443241</v>
       </c>
       <c r="L10" t="n">
         <v>40.15635577443241</v>
       </c>
       <c r="M10" t="n">
-        <v>40.15635577443241</v>
+        <v>75.80919501341444</v>
       </c>
       <c r="N10" t="n">
-        <v>75.80919501341444</v>
+        <v>112.9632064308799</v>
       </c>
       <c r="O10" t="n">
         <v>112.9632064308799</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1172178483454</v>
+        <v>112.9632064308799</v>
       </c>
       <c r="Q10" t="n">
         <v>150.1172178483454</v>
@@ -4995,19 +4995,19 @@
         <v>150.1172178483454</v>
       </c>
       <c r="U10" t="n">
+        <v>150.1172178483454</v>
+      </c>
+      <c r="V10" t="n">
         <v>112.2088295028037</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
+        <v>112.2088295028037</v>
+      </c>
+      <c r="X10" t="n">
+        <v>112.2088295028037</v>
+      </c>
+      <c r="Y10" t="n">
         <v>74.30044115726187</v>
-      </c>
-      <c r="W10" t="n">
-        <v>40.91073270250869</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.002344356966909</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.002344356966909</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.3388250768128</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="C11" t="n">
-        <v>239.3388250768128</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="D11" t="n">
-        <v>239.3388250768128</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="E11" t="n">
-        <v>239.3388250768128</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="F11" t="n">
-        <v>17.5645245979277</v>
+        <v>461.1131255556984</v>
       </c>
       <c r="G11" t="n">
-        <v>17.5645245979277</v>
+        <v>239.3388250768131</v>
       </c>
       <c r="H11" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I11" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422714</v>
+        <v>61.76566646422719</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474253</v>
+        <v>148.5608200474255</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723309</v>
+        <v>271.1830965723312</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543859</v>
+        <v>420.4501281543863</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547429</v>
+        <v>574.0010487547435</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809669</v>
+        <v>713.5940480809677</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598415</v>
+        <v>818.7605380598422</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.226229896385</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="R11" t="n">
-        <v>878.226229896385</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="S11" t="n">
-        <v>878.226229896385</v>
+        <v>774.938829594712</v>
       </c>
       <c r="T11" t="n">
-        <v>662.1657606273686</v>
+        <v>774.938829594712</v>
       </c>
       <c r="U11" t="n">
-        <v>662.1657606273686</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="V11" t="n">
-        <v>662.1657606273686</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="W11" t="n">
-        <v>440.3914601484835</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="X11" t="n">
-        <v>440.3914601484835</v>
+        <v>682.8874260345838</v>
       </c>
       <c r="Y11" t="n">
-        <v>440.3914601484835</v>
+        <v>682.8874260345838</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.2511975486481</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="C12" t="n">
-        <v>353.2561262975938</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="D12" t="n">
-        <v>353.2561262975938</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="E12" t="n">
-        <v>232.7633102899218</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8034304724263</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="G12" t="n">
-        <v>17.5645245979277</v>
+        <v>81.05666125440385</v>
       </c>
       <c r="H12" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I12" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J12" t="n">
-        <v>199.1734695941</v>
+        <v>36.26919386777749</v>
       </c>
       <c r="K12" t="n">
-        <v>262.7954326257557</v>
+        <v>253.630185767133</v>
       </c>
       <c r="L12" t="n">
-        <v>367.1036425275507</v>
+        <v>367.1036425275512</v>
       </c>
       <c r="M12" t="n">
-        <v>496.6659351922971</v>
+        <v>496.6659351922976</v>
       </c>
       <c r="N12" t="n">
-        <v>635.4928574101228</v>
+        <v>635.4928574101235</v>
       </c>
       <c r="O12" t="n">
-        <v>753.4933521432221</v>
+        <v>753.4933521432229</v>
       </c>
       <c r="P12" t="n">
-        <v>840.3692604453869</v>
+        <v>840.3692604453877</v>
       </c>
       <c r="Q12" t="n">
-        <v>878.226229896385</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="R12" t="n">
-        <v>878.226229896385</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="S12" t="n">
-        <v>878.226229896385</v>
+        <v>784.1895570513697</v>
       </c>
       <c r="T12" t="n">
-        <v>721.9122566950532</v>
+        <v>627.8755838500379</v>
       </c>
       <c r="U12" t="n">
-        <v>721.9122566950532</v>
+        <v>430.574194488991</v>
       </c>
       <c r="V12" t="n">
-        <v>646.6531571848182</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="W12" t="n">
-        <v>646.6531571848182</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="X12" t="n">
-        <v>646.6531571848182</v>
+        <v>216.8626674820248</v>
       </c>
       <c r="Y12" t="n">
-        <v>487.2511975486481</v>
+        <v>216.8626674820248</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="D13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="E13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="F13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="G13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="H13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="I13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="J13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="K13" t="n">
-        <v>37.55032788682519</v>
+        <v>37.55032788682527</v>
       </c>
       <c r="L13" t="n">
-        <v>254.9113197861805</v>
+        <v>75.23712329476733</v>
       </c>
       <c r="M13" t="n">
-        <v>468.6576018968085</v>
+        <v>226.1432541983193</v>
       </c>
       <c r="N13" t="n">
-        <v>511.9187489500387</v>
+        <v>443.5042460976748</v>
       </c>
       <c r="O13" t="n">
-        <v>543.6506192616148</v>
+        <v>660.8652379970304</v>
       </c>
       <c r="P13" t="n">
-        <v>761.0116111609701</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="Q13" t="n">
-        <v>878.226229896385</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="R13" t="n">
-        <v>878.226229896385</v>
+        <v>878.2262298963859</v>
       </c>
       <c r="S13" t="n">
-        <v>878.226229896385</v>
+        <v>702.8099238443056</v>
       </c>
       <c r="T13" t="n">
-        <v>656.4519294174999</v>
+        <v>702.8099238443056</v>
       </c>
       <c r="U13" t="n">
-        <v>434.6776289386147</v>
+        <v>481.0356233654202</v>
       </c>
       <c r="V13" t="n">
-        <v>239.3388250768128</v>
+        <v>259.2613228865348</v>
       </c>
       <c r="W13" t="n">
-        <v>17.5645245979277</v>
+        <v>37.48702240764945</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.3914601484834</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="C14" t="n">
-        <v>440.3914601484834</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="D14" t="n">
-        <v>440.3914601484834</v>
+        <v>331.3902286369405</v>
       </c>
       <c r="E14" t="n">
-        <v>239.3388250768128</v>
+        <v>331.3902286369405</v>
       </c>
       <c r="F14" t="n">
-        <v>17.5645245979277</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="G14" t="n">
-        <v>17.5645245979277</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="H14" t="n">
-        <v>17.5645245979277</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="I14" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J14" t="n">
         <v>61.76566646422691</v>
@@ -5284,46 +5284,46 @@
         <v>148.5608200474251</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547423</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809662</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598411</v>
+        <v>818.760538059841</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963848</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="T14" t="n">
-        <v>662.1657606273684</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="U14" t="n">
-        <v>662.1657606273684</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="V14" t="n">
-        <v>440.3914601484834</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="W14" t="n">
-        <v>440.3914601484834</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="X14" t="n">
-        <v>440.3914601484834</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="Y14" t="n">
-        <v>440.3914601484834</v>
+        <v>553.1645291158255</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>126.5244044154231</v>
+        <v>304.19272490951</v>
       </c>
       <c r="C15" t="n">
-        <v>126.5244044154231</v>
+        <v>304.19272490951</v>
       </c>
       <c r="D15" t="n">
-        <v>126.5244044154231</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="E15" t="n">
-        <v>126.5244044154231</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="F15" t="n">
-        <v>17.5645245979277</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="G15" t="n">
-        <v>17.5645245979277</v>
+        <v>81.05666125440383</v>
       </c>
       <c r="H15" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I15" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J15" t="n">
-        <v>199.1734695940998</v>
+        <v>36.26919386777739</v>
       </c>
       <c r="K15" t="n">
-        <v>262.7954326257555</v>
+        <v>99.89115689943301</v>
       </c>
       <c r="L15" t="n">
-        <v>367.1036425275505</v>
+        <v>204.1993668012279</v>
       </c>
       <c r="M15" t="n">
-        <v>496.6659351922968</v>
+        <v>333.7616594659742</v>
       </c>
       <c r="N15" t="n">
-        <v>635.4928574101226</v>
+        <v>472.5885816837999</v>
       </c>
       <c r="O15" t="n">
-        <v>753.4933521432218</v>
+        <v>590.589076416899</v>
       </c>
       <c r="P15" t="n">
-        <v>840.3692604453867</v>
+        <v>807.9500683162543</v>
       </c>
       <c r="Q15" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R15" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S15" t="n">
-        <v>878.2262298963848</v>
+        <v>784.1895570513683</v>
       </c>
       <c r="T15" t="n">
-        <v>878.2262298963848</v>
+        <v>784.1895570513683</v>
       </c>
       <c r="U15" t="n">
-        <v>680.9248405353379</v>
+        <v>586.8881676903214</v>
       </c>
       <c r="V15" t="n">
-        <v>467.2133135283717</v>
+        <v>373.1766406833552</v>
       </c>
       <c r="W15" t="n">
-        <v>253.9801452647005</v>
+        <v>373.1766406833552</v>
       </c>
       <c r="X15" t="n">
-        <v>253.9801452647005</v>
+        <v>373.1766406833552</v>
       </c>
       <c r="Y15" t="n">
-        <v>126.5244044154231</v>
+        <v>304.19272490951</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.56161649248995</v>
+        <v>599.4967047748891</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5645245979277</v>
+        <v>599.4967047748891</v>
       </c>
       <c r="D16" t="n">
-        <v>17.5645245979277</v>
+        <v>599.4967047748891</v>
       </c>
       <c r="E16" t="n">
-        <v>17.5645245979277</v>
+        <v>492.8243351861776</v>
       </c>
       <c r="F16" t="n">
-        <v>17.5645245979277</v>
+        <v>328.1932092967689</v>
       </c>
       <c r="G16" t="n">
-        <v>17.5645245979277</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="H16" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I16" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J16" t="n">
-        <v>75.28691789969612</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K16" t="n">
-        <v>95.27272118859361</v>
+        <v>37.55032788682517</v>
       </c>
       <c r="L16" t="n">
-        <v>206.7112556062396</v>
+        <v>254.9113197861803</v>
       </c>
       <c r="M16" t="n">
-        <v>424.0722475055949</v>
+        <v>472.2723116855356</v>
       </c>
       <c r="N16" t="n">
-        <v>641.4332394049501</v>
+        <v>689.6333035848908</v>
       </c>
       <c r="O16" t="n">
-        <v>858.7942313043053</v>
+        <v>858.7942313043051</v>
       </c>
       <c r="P16" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="Q16" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R16" t="n">
-        <v>878.2262298963848</v>
+        <v>821.2710052537741</v>
       </c>
       <c r="S16" t="n">
-        <v>702.8099238443044</v>
+        <v>821.2710052537741</v>
       </c>
       <c r="T16" t="n">
-        <v>481.0356233654194</v>
+        <v>821.2710052537741</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2613228865343</v>
+        <v>821.2710052537741</v>
       </c>
       <c r="V16" t="n">
-        <v>259.2613228865343</v>
+        <v>821.2710052537741</v>
       </c>
       <c r="W16" t="n">
-        <v>259.2613228865343</v>
+        <v>599.4967047748891</v>
       </c>
       <c r="X16" t="n">
-        <v>259.2613228865343</v>
+        <v>599.4967047748891</v>
       </c>
       <c r="Y16" t="n">
-        <v>259.2613228865343</v>
+        <v>599.4967047748891</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.1741332394367</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="C17" t="n">
-        <v>455.1741332394367</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="D17" t="n">
-        <v>455.1741332394367</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="E17" t="n">
-        <v>250.6244513224491</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="F17" t="n">
-        <v>18.39275069008337</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="G17" t="n">
-        <v>18.39275069008337</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="H17" t="n">
-        <v>18.39275069008337</v>
+        <v>49.29419167122322</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="J17" t="n">
-        <v>65.44760204996624</v>
+        <v>65.44760204996589</v>
       </c>
       <c r="K17" t="n">
-        <v>156.5197264161734</v>
+        <v>156.5197264161726</v>
       </c>
       <c r="L17" t="n">
-        <v>284.4479633930285</v>
+        <v>284.4479633930273</v>
       </c>
       <c r="M17" t="n">
-        <v>439.6188983270054</v>
+        <v>439.6188983270036</v>
       </c>
       <c r="N17" t="n">
-        <v>599.1692536078592</v>
+        <v>599.1692536078568</v>
       </c>
       <c r="O17" t="n">
-        <v>744.4273489789382</v>
+        <v>744.4273489789351</v>
       </c>
       <c r="P17" t="n">
-        <v>854.428867365467</v>
+        <v>854.4288673654637</v>
       </c>
       <c r="Q17" t="n">
-        <v>917.5254641764604</v>
+        <v>917.5254641764567</v>
       </c>
       <c r="R17" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="S17" t="n">
-        <v>919.6375345041683</v>
+        <v>817.1318747908915</v>
       </c>
       <c r="T17" t="n">
-        <v>919.6375345041683</v>
+        <v>817.1318747908915</v>
       </c>
       <c r="U17" t="n">
-        <v>687.4058338718025</v>
+        <v>584.9001741585267</v>
       </c>
       <c r="V17" t="n">
-        <v>455.1741332394367</v>
+        <v>584.9001741585267</v>
       </c>
       <c r="W17" t="n">
-        <v>455.1741332394367</v>
+        <v>352.668473526162</v>
       </c>
       <c r="X17" t="n">
-        <v>455.1741332394367</v>
+        <v>120.4367728937972</v>
       </c>
       <c r="Y17" t="n">
-        <v>455.1741332394367</v>
+        <v>120.4367728937972</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>438.8203949452893</v>
+        <v>498.7376755469126</v>
       </c>
       <c r="C18" t="n">
-        <v>304.825323694235</v>
+        <v>364.7426042958583</v>
       </c>
       <c r="D18" t="n">
-        <v>187.9281659136274</v>
+        <v>247.8454465152507</v>
       </c>
       <c r="E18" t="n">
-        <v>187.9281659136274</v>
+        <v>127.3526305075787</v>
       </c>
       <c r="F18" t="n">
-        <v>187.9281659136274</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="G18" t="n">
-        <v>81.70761519390001</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="J18" t="n">
-        <v>38.79706978444417</v>
+        <v>38.79706978444393</v>
       </c>
       <c r="K18" t="n">
-        <v>266.4073595742258</v>
+        <v>105.3240050824298</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6216631839462</v>
+        <v>213.5383086921499</v>
       </c>
       <c r="M18" t="n">
-        <v>508.7421829673038</v>
+        <v>441.1485984819305</v>
       </c>
       <c r="N18" t="n">
-        <v>652.2479750121424</v>
+        <v>666.8922374748279</v>
       </c>
       <c r="O18" t="n">
-        <v>789.1729840082296</v>
+        <v>789.1729840082263</v>
       </c>
       <c r="P18" t="n">
-        <v>879.4841717337993</v>
+        <v>879.4841717337956</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="R18" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="S18" t="n">
-        <v>825.9418006085222</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="T18" t="n">
-        <v>825.9418006085222</v>
+        <v>763.3975454573713</v>
       </c>
       <c r="U18" t="n">
-        <v>825.9418006085222</v>
+        <v>763.3975454573713</v>
       </c>
       <c r="V18" t="n">
-        <v>755.4494094419831</v>
+        <v>763.3975454573713</v>
       </c>
       <c r="W18" t="n">
-        <v>755.4494094419831</v>
+        <v>763.3975454573713</v>
       </c>
       <c r="X18" t="n">
-        <v>579.1234275808758</v>
+        <v>639.0407081824992</v>
       </c>
       <c r="Y18" t="n">
-        <v>579.1234275808758</v>
+        <v>639.0407081824992</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="J19" t="n">
-        <v>77.18144967094459</v>
+        <v>77.1814496709444</v>
       </c>
       <c r="K19" t="n">
-        <v>304.7917394607263</v>
+        <v>304.7917394607251</v>
       </c>
       <c r="L19" t="n">
-        <v>532.4020292505079</v>
+        <v>532.4020292505058</v>
       </c>
       <c r="M19" t="n">
-        <v>636.9074736051011</v>
+        <v>625.2020103136649</v>
       </c>
       <c r="N19" t="n">
-        <v>864.5177633948828</v>
+        <v>670.7711326139271</v>
       </c>
       <c r="O19" t="n">
-        <v>898.3814224037116</v>
+        <v>898.3814224037078</v>
       </c>
       <c r="P19" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="R19" t="n">
-        <v>863.3742258180483</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="S19" t="n">
-        <v>688.226096654078</v>
+        <v>919.6375345041645</v>
       </c>
       <c r="T19" t="n">
-        <v>688.226096654078</v>
+        <v>687.4058338717997</v>
       </c>
       <c r="U19" t="n">
-        <v>688.226096654078</v>
+        <v>482.8561519548128</v>
       </c>
       <c r="V19" t="n">
-        <v>482.8561519548149</v>
+        <v>250.6244513224481</v>
       </c>
       <c r="W19" t="n">
-        <v>250.6244513224491</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="X19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>715.0878525871807</v>
+        <v>368.9898779855378</v>
       </c>
       <c r="C20" t="n">
-        <v>482.8561519548149</v>
+        <v>368.9898779855378</v>
       </c>
       <c r="D20" t="n">
-        <v>250.6244513224491</v>
+        <v>368.9898779855378</v>
       </c>
       <c r="E20" t="n">
-        <v>18.39275069008337</v>
+        <v>250.624451322448</v>
       </c>
       <c r="F20" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="G20" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="H20" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="I20" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="J20" t="n">
-        <v>65.44760204996601</v>
+        <v>65.44760204996589</v>
       </c>
       <c r="K20" t="n">
-        <v>156.5197264161731</v>
+        <v>156.5197264161726</v>
       </c>
       <c r="L20" t="n">
-        <v>284.4479633930283</v>
+        <v>284.4479633930274</v>
       </c>
       <c r="M20" t="n">
-        <v>439.6188983270052</v>
+        <v>439.6188983270036</v>
       </c>
       <c r="N20" t="n">
-        <v>599.169253607859</v>
+        <v>599.1692536078568</v>
       </c>
       <c r="O20" t="n">
-        <v>744.4273489789382</v>
+        <v>744.4273489789351</v>
       </c>
       <c r="P20" t="n">
-        <v>854.4288673654671</v>
+        <v>854.4288673654637</v>
       </c>
       <c r="Q20" t="n">
-        <v>917.5254641764604</v>
+        <v>917.5254641764566</v>
       </c>
       <c r="R20" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="S20" t="n">
-        <v>919.6375345041683</v>
+        <v>817.1318747908914</v>
       </c>
       <c r="T20" t="n">
-        <v>919.6375345041683</v>
+        <v>601.2215786179025</v>
       </c>
       <c r="U20" t="n">
-        <v>919.6375345041683</v>
+        <v>601.2215786179025</v>
       </c>
       <c r="V20" t="n">
-        <v>919.6375345041683</v>
+        <v>368.9898779855378</v>
       </c>
       <c r="W20" t="n">
-        <v>919.6375345041683</v>
+        <v>368.9898779855378</v>
       </c>
       <c r="X20" t="n">
-        <v>919.6375345041683</v>
+        <v>368.9898779855378</v>
       </c>
       <c r="Y20" t="n">
-        <v>919.6375345041683</v>
+        <v>368.9898779855378</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>152.3878219411377</v>
+        <v>208.9208334403664</v>
       </c>
       <c r="C21" t="n">
-        <v>18.39275069008337</v>
+        <v>208.9208334403664</v>
       </c>
       <c r="D21" t="n">
-        <v>18.39275069008337</v>
+        <v>124.6133014098106</v>
       </c>
       <c r="E21" t="n">
-        <v>18.39275069008337</v>
+        <v>124.6133014098106</v>
       </c>
       <c r="F21" t="n">
-        <v>18.39275069008337</v>
+        <v>124.6133014098106</v>
       </c>
       <c r="G21" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="H21" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="I21" t="n">
-        <v>24.0256716738382</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="J21" t="n">
-        <v>138.1356489645233</v>
+        <v>38.79706978444393</v>
       </c>
       <c r="K21" t="n">
-        <v>204.6625842625094</v>
+        <v>105.3240050824298</v>
       </c>
       <c r="L21" t="n">
-        <v>312.8768878722298</v>
+        <v>213.5383086921499</v>
       </c>
       <c r="M21" t="n">
-        <v>446.9974076555874</v>
+        <v>347.658828475507</v>
       </c>
       <c r="N21" t="n">
-        <v>590.503199700426</v>
+        <v>491.1646205203451</v>
       </c>
       <c r="O21" t="n">
-        <v>712.7839462338247</v>
+        <v>613.4453670537436</v>
       </c>
       <c r="P21" t="n">
-        <v>803.0951339593944</v>
+        <v>703.7565547793129</v>
       </c>
       <c r="Q21" t="n">
-        <v>843.2484967297635</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="R21" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="S21" t="n">
-        <v>825.9418006085222</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="T21" t="n">
-        <v>669.7018115617291</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="U21" t="n">
-        <v>472.401629776654</v>
+        <v>722.3373527190893</v>
       </c>
       <c r="V21" t="n">
-        <v>258.6901027696878</v>
+        <v>508.6258257121231</v>
       </c>
       <c r="W21" t="n">
-        <v>152.3878219411377</v>
+        <v>508.6258257121231</v>
       </c>
       <c r="X21" t="n">
-        <v>152.3878219411377</v>
+        <v>508.6258257121231</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.3878219411377</v>
+        <v>349.2238660759531</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.7224651912551</v>
+        <v>230.4384346281995</v>
       </c>
       <c r="C22" t="n">
-        <v>349.6290927529716</v>
+        <v>230.4384346281995</v>
       </c>
       <c r="D22" t="n">
-        <v>349.6290927529716</v>
+        <v>230.4384346281995</v>
       </c>
       <c r="E22" t="n">
-        <v>349.6290927529716</v>
+        <v>69.52761949651898</v>
       </c>
       <c r="F22" t="n">
-        <v>184.9979668635628</v>
+        <v>69.52761949651898</v>
       </c>
       <c r="G22" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="H22" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="I22" t="n">
-        <v>18.39275069008337</v>
+        <v>18.39275069008329</v>
       </c>
       <c r="J22" t="n">
-        <v>77.18144967094457</v>
+        <v>77.1814496709444</v>
       </c>
       <c r="K22" t="n">
-        <v>304.7917394607263</v>
+        <v>304.7917394607251</v>
       </c>
       <c r="L22" t="n">
-        <v>450.6976863172786</v>
+        <v>532.4020292505057</v>
       </c>
       <c r="M22" t="n">
-        <v>494.1169230278434</v>
+        <v>575.8212659610704</v>
       </c>
       <c r="N22" t="n">
-        <v>539.6860453281058</v>
+        <v>621.3903882613325</v>
       </c>
       <c r="O22" t="n">
-        <v>573.5497043369346</v>
+        <v>655.2540472701612</v>
       </c>
       <c r="P22" t="n">
-        <v>801.1599941267162</v>
+        <v>801.1599941267124</v>
       </c>
       <c r="Q22" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="R22" t="n">
-        <v>919.6375345041683</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="S22" t="n">
-        <v>744.4894053401981</v>
+        <v>919.6375345041644</v>
       </c>
       <c r="T22" t="n">
-        <v>744.4894053401981</v>
+        <v>687.4058338717996</v>
       </c>
       <c r="U22" t="n">
-        <v>744.4894053401981</v>
+        <v>455.1741332394348</v>
       </c>
       <c r="V22" t="n">
-        <v>520.7224651912551</v>
+        <v>455.1741332394348</v>
       </c>
       <c r="W22" t="n">
-        <v>520.7224651912551</v>
+        <v>455.1741332394348</v>
       </c>
       <c r="X22" t="n">
-        <v>520.7224651912551</v>
+        <v>455.1741332394348</v>
       </c>
       <c r="Y22" t="n">
-        <v>520.7224651912551</v>
+        <v>230.4384346281995</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.641439679111</v>
+        <v>1273.840894808869</v>
       </c>
       <c r="C23" t="n">
-        <v>461.5168489923811</v>
+        <v>1273.840894808869</v>
       </c>
       <c r="D23" t="n">
-        <v>461.5168489923811</v>
+        <v>869.3769649019296</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923811</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G23" t="n">
         <v>40.48643694606871</v>
@@ -6025,16 +6025,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="V23" t="n">
-        <v>2024.321847303436</v>
+        <v>1674.484292639916</v>
       </c>
       <c r="W23" t="n">
-        <v>1673.221510562068</v>
+        <v>1674.484292639916</v>
       </c>
       <c r="X23" t="n">
-        <v>1272.578112731021</v>
+        <v>1273.840894808869</v>
       </c>
       <c r="Y23" t="n">
-        <v>871.641439679111</v>
+        <v>1273.840894808869</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J24" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K24" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L24" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M24" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N24" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1467.092931389886</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.691252826069</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q24" t="n">
         <v>1918.251596225539</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>738.3136482338138</v>
+        <v>696.6163950825314</v>
       </c>
       <c r="C25" t="n">
-        <v>738.3136482338138</v>
+        <v>525.5230226442479</v>
       </c>
       <c r="D25" t="n">
-        <v>578.8190035567238</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E25" t="n">
-        <v>417.9081884250433</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F25" t="n">
-        <v>417.9081884250433</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G25" t="n">
-        <v>251.7118932591552</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J25" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>337.1911823108421</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168145</v>
+        <v>750.6849613854781</v>
       </c>
       <c r="M25" t="n">
-        <v>1266.896543402695</v>
+        <v>1201.895179771359</v>
       </c>
       <c r="N25" t="n">
-        <v>1373.796468531156</v>
+        <v>1308.795104899819</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062865</v>
+        <v>1714.382446417321</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104106</v>
+        <v>1992.093029245466</v>
       </c>
       <c r="S25" t="n">
-        <v>1986.445114104106</v>
+        <v>1992.093029245466</v>
       </c>
       <c r="T25" t="n">
-        <v>1986.445114104106</v>
+        <v>1757.048154558779</v>
       </c>
       <c r="U25" t="n">
-        <v>1703.704462790697</v>
+        <v>1474.307503245371</v>
       </c>
       <c r="V25" t="n">
-        <v>1429.818717730219</v>
+        <v>1200.421758184892</v>
       </c>
       <c r="W25" t="n">
-        <v>1150.749053239093</v>
+        <v>921.3520936937667</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.749053239093</v>
+        <v>921.3520936937667</v>
       </c>
       <c r="Y25" t="n">
-        <v>926.0133546278581</v>
+        <v>696.6163950825314</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1383.689048778839</v>
+        <v>865.9807788993206</v>
       </c>
       <c r="C26" t="n">
-        <v>1154.737524722578</v>
+        <v>865.9807788993206</v>
       </c>
       <c r="D26" t="n">
-        <v>1154.737524722578</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="E26" t="n">
-        <v>1154.737524722578</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F26" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H26" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752964</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N26" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O26" t="n">
         <v>1568.017893256777</v>
@@ -6247,7 +6247,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R26" t="n">
         <v>2024.321847303436</v>
@@ -6262,16 +6262,16 @@
         <v>1767.44934964367</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.44934964367</v>
+        <v>1417.611794980151</v>
       </c>
       <c r="W26" t="n">
-        <v>1383.689048778839</v>
+        <v>1033.851494115319</v>
       </c>
       <c r="X26" t="n">
-        <v>1383.689048778839</v>
+        <v>865.9807788993206</v>
       </c>
       <c r="Y26" t="n">
-        <v>1383.689048778839</v>
+        <v>865.9807788993206</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C27" t="n">
-        <v>551.173218557955</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G27" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H27" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I27" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J27" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K27" t="n">
-        <v>629.1681251475052</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L27" t="n">
         <v>876.3675943831691</v>
@@ -6317,7 +6317,7 @@
         <v>1131.615812142137</v>
       </c>
       <c r="N27" t="n">
-        <v>1399.455191901287</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O27" t="n">
         <v>1635.476880655266</v>
@@ -6335,7 +6335,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U27" t="n">
         <v>1588.14395921251</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>947.4591973664158</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="C28" t="n">
-        <v>776.3658249281323</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="D28" t="n">
-        <v>616.8711802510422</v>
+        <v>143.3069999290503</v>
       </c>
       <c r="E28" t="n">
-        <v>455.9603651193617</v>
+        <v>143.3069999290503</v>
       </c>
       <c r="F28" t="n">
-        <v>291.3292392299529</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I28" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J28" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K28" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L28" t="n">
-        <v>815.6863250168145</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M28" t="n">
-        <v>921.9301938884096</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N28" t="n">
-        <v>1360.864420464456</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O28" t="n">
-        <v>1541.657620062866</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P28" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
@@ -6411,25 +6411,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T28" t="n">
-        <v>1621.255221375985</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U28" t="n">
-        <v>1338.514570062576</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V28" t="n">
-        <v>1338.514570062576</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.514570062576</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X28" t="n">
-        <v>1338.514570062576</v>
+        <v>715.2370496114199</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.778871451341</v>
+        <v>490.5013510001846</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1675.793531120958</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="C29" t="n">
-        <v>1265.668940434228</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="D29" t="n">
-        <v>861.2050105272881</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="E29" t="n">
-        <v>446.8647950441848</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F29" t="n">
         <v>446.8647950441848</v>
@@ -6460,7 +6460,7 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.6457459074655</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J29" t="n">
         <v>167.5334271492898</v>
@@ -6472,7 +6472,7 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576256</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303435</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U29" t="n">
-        <v>2024.321847303435</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V29" t="n">
-        <v>2024.321847303435</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.321847303435</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="X29" t="n">
-        <v>2024.321847303435</v>
+        <v>1330.026630249238</v>
       </c>
       <c r="Y29" t="n">
-        <v>2024.321847303435</v>
+        <v>929.0899571973281</v>
       </c>
     </row>
     <row r="30">
@@ -6539,34 +6539,34 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505504</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>108.5806640902073</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
-        <v>252.3026566214988</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L30" t="n">
-        <v>464.3152411431561</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M30" t="n">
-        <v>965.3348983507562</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N30" t="n">
-        <v>1466.354555558356</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O30" t="n">
-        <v>1702.376244312336</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P30" t="n">
-        <v>1883.974565748519</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q30" t="n">
-        <v>1985.150959882609</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6028665600896</v>
+        <v>703.3180455713295</v>
       </c>
       <c r="C31" t="n">
-        <v>284.6028665600896</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="D31" t="n">
-        <v>284.6028665600896</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E31" t="n">
-        <v>125.1329440640648</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F31" t="n">
-        <v>125.1329440640648</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J31" t="n">
-        <v>62.60916429909248</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K31" t="n">
         <v>337.1911823108421</v>
       </c>
       <c r="L31" t="n">
-        <v>750.6849613854781</v>
+        <v>436.7058501504551</v>
       </c>
       <c r="M31" t="n">
-        <v>856.9288302570732</v>
+        <v>887.9160685363356</v>
       </c>
       <c r="N31" t="n">
-        <v>1295.863056833119</v>
+        <v>1326.850295112382</v>
       </c>
       <c r="O31" t="n">
-        <v>1667.931580268702</v>
+        <v>1732.437636629883</v>
       </c>
       <c r="P31" t="n">
         <v>1998.558115949587</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.378488176654</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U31" t="n">
-        <v>1300.637836863245</v>
+        <v>1741.581195990027</v>
       </c>
       <c r="V31" t="n">
-        <v>1026.752091802767</v>
+        <v>1467.695450929549</v>
       </c>
       <c r="W31" t="n">
-        <v>747.6824273116415</v>
+        <v>1354.097312716926</v>
       </c>
       <c r="X31" t="n">
-        <v>509.3385651713249</v>
+        <v>1115.753450576609</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6028665600896</v>
+        <v>891.0177519653739</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>489.1439208921278</v>
+        <v>660.9845388084422</v>
       </c>
       <c r="C32" t="n">
-        <v>489.1439208921278</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="D32" t="n">
-        <v>84.67999098518828</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="E32" t="n">
-        <v>84.67999098518828</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F32" t="n">
-        <v>84.67999098518828</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H32" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
         <v>372.2593058752964</v>
@@ -6709,10 +6709,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
         <v>1568.017893256777</v>
@@ -6721,7 +6721,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q32" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R32" t="n">
         <v>2024.321847303436</v>
@@ -6730,22 +6730,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U32" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="V32" t="n">
-        <v>1674.484292639916</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="W32" t="n">
-        <v>1290.723991775085</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="X32" t="n">
-        <v>890.0805939440377</v>
+        <v>1061.921211860352</v>
       </c>
       <c r="Y32" t="n">
-        <v>489.1439208921278</v>
+        <v>660.9845388084422</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579546</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773471</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696751</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521796</v>
       </c>
       <c r="G33" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H33" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I33" t="n">
-        <v>62.57863487475244</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J33" t="n">
-        <v>128.1484679399047</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K33" t="n">
-        <v>506.5532868898604</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L33" t="n">
-        <v>718.5658714115177</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.585528619118</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N33" t="n">
-        <v>1487.424908378267</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O33" t="n">
-        <v>1723.446597132247</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P33" t="n">
-        <v>1905.04491856843</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q33" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1087.694781664777</v>
+        <v>134.7798933653761</v>
       </c>
       <c r="C34" t="n">
-        <v>916.6014092264938</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="D34" t="n">
-        <v>757.1067645494038</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H34" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I34" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J34" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168145</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M34" t="n">
-        <v>921.9301938884096</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N34" t="n">
-        <v>1136.070278545364</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O34" t="n">
-        <v>1541.657620062865</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.28415574375</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
@@ -6885,25 +6885,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U34" t="n">
-        <v>2024.321847303436</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1829.844006907455</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W34" t="n">
-        <v>1550.774342416329</v>
+        <v>785.5591605109723</v>
       </c>
       <c r="X34" t="n">
-        <v>1312.430480276013</v>
+        <v>547.2152983706558</v>
       </c>
       <c r="Y34" t="n">
-        <v>1087.694781664777</v>
+        <v>322.4795997594205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1141.009640145845</v>
+        <v>936.6885475509641</v>
       </c>
       <c r="C35" t="n">
-        <v>851.3287249511243</v>
+        <v>936.6885475509641</v>
       </c>
       <c r="D35" t="n">
-        <v>446.8647950441848</v>
+        <v>936.6885475509641</v>
       </c>
       <c r="E35" t="n">
-        <v>446.8647950441848</v>
+        <v>522.3483320678608</v>
       </c>
       <c r="F35" t="n">
-        <v>446.8647950441848</v>
+        <v>101.3179200215484</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606871</v>
+        <v>101.3179200215484</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J35" t="n">
         <v>167.5334271492898</v>
@@ -6946,7 +6946,7 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576256</v>
@@ -6961,28 +6961,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S35" t="n">
-        <v>1942.589711028803</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T35" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U35" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V35" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W35" t="n">
-        <v>1942.589711028803</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="X35" t="n">
-        <v>1541.946313197755</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="Y35" t="n">
-        <v>1141.009640145845</v>
+        <v>1346.909727215454</v>
       </c>
     </row>
     <row r="36">
@@ -7016,31 +7016,31 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J36" t="n">
-        <v>319.5956611212582</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K36" t="n">
-        <v>463.3176536525497</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L36" t="n">
-        <v>964.3373108601501</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.585528619118</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N36" t="n">
-        <v>1487.424908378267</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R36" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S36" t="n">
         <v>1939.686028373151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.8106564672881</v>
+        <v>916.1419883504973</v>
       </c>
       <c r="C37" t="n">
-        <v>367.7172840290046</v>
+        <v>745.0486159122138</v>
       </c>
       <c r="D37" t="n">
-        <v>208.2226393519147</v>
+        <v>585.5539712351238</v>
       </c>
       <c r="E37" t="n">
-        <v>208.2226393519147</v>
+        <v>424.6431561034432</v>
       </c>
       <c r="F37" t="n">
-        <v>43.59151346250593</v>
+        <v>260.0120302140345</v>
       </c>
       <c r="G37" t="n">
-        <v>40.48643694606871</v>
+        <v>93.81573504814639</v>
       </c>
       <c r="H37" t="n">
-        <v>40.48643694606871</v>
+        <v>93.81573504814639</v>
       </c>
       <c r="I37" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>130.910988725128</v>
+        <v>195.9123523564643</v>
       </c>
       <c r="L37" t="n">
-        <v>544.4047677997639</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M37" t="n">
-        <v>995.6149861856445</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N37" t="n">
-        <v>1434.549212761691</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O37" t="n">
-        <v>1802.555103535984</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P37" t="n">
-        <v>1872.28415574375</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S37" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.65958810401</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="V37" t="n">
-        <v>1468.65958810401</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="W37" t="n">
-        <v>1189.589923612884</v>
+        <v>1342.185556884858</v>
       </c>
       <c r="X37" t="n">
-        <v>951.2460614725678</v>
+        <v>1103.841694744542</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.5103628613325</v>
+        <v>1103.841694744542</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.7873187231752</v>
+        <v>1320.448848415796</v>
       </c>
       <c r="C38" t="n">
-        <v>889.7873187231752</v>
+        <v>910.3242577290661</v>
       </c>
       <c r="D38" t="n">
-        <v>889.7873187231752</v>
+        <v>910.3242577290661</v>
       </c>
       <c r="E38" t="n">
-        <v>889.7873187231752</v>
+        <v>495.9840422459628</v>
       </c>
       <c r="F38" t="n">
-        <v>468.7569066768627</v>
+        <v>74.95363019965032</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606871</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V38" t="n">
-        <v>1674.484292639916</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W38" t="n">
-        <v>1290.723991775085</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="X38" t="n">
-        <v>1290.723991775085</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.7873187231752</v>
+        <v>1730.670028080285</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>62.57863487475244</v>
+        <v>43.01083102505505</v>
       </c>
       <c r="J39" t="n">
-        <v>371.816871914538</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K39" t="n">
-        <v>515.5388644458295</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L39" t="n">
-        <v>727.5514489674867</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M39" t="n">
-        <v>982.7996667264548</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N39" t="n">
-        <v>1250.639046485604</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.660735239583</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P39" t="n">
-        <v>1668.259056675766</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q39" t="n">
         <v>1918.251596225539</v>
@@ -7295,10 +7295,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>928.2001369876873</v>
+        <v>371.0744540614422</v>
       </c>
       <c r="C40" t="n">
-        <v>757.1067645494038</v>
+        <v>199.9810816231587</v>
       </c>
       <c r="D40" t="n">
-        <v>757.1067645494038</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E40" t="n">
-        <v>596.1959494177233</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F40" t="n">
-        <v>431.5648235283147</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
@@ -7335,49 +7335,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>609.4061314311003</v>
+        <v>506.8233170565552</v>
       </c>
       <c r="M40" t="n">
-        <v>1060.616349816981</v>
+        <v>958.0335354424358</v>
       </c>
       <c r="N40" t="n">
-        <v>1499.550576393027</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O40" t="n">
-        <v>1905.137917910529</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P40" t="n">
-        <v>1974.866970118295</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.429744188482</v>
+        <v>1574.809130758642</v>
       </c>
       <c r="V40" t="n">
-        <v>1166.543999128004</v>
+        <v>1300.923385698164</v>
       </c>
       <c r="W40" t="n">
-        <v>1166.543999128004</v>
+        <v>1021.853721207038</v>
       </c>
       <c r="X40" t="n">
-        <v>928.2001369876873</v>
+        <v>783.5098590667219</v>
       </c>
       <c r="Y40" t="n">
-        <v>928.2001369876873</v>
+        <v>558.7741604554866</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867.8952070904973</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C41" t="n">
-        <v>867.8952070904973</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D41" t="n">
-        <v>867.8952070904973</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E41" t="n">
-        <v>867.8952070904973</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G41" t="n">
         <v>40.48643694606871</v>
@@ -7408,10 +7408,10 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
         <v>372.2593058752964</v>
@@ -7420,10 +7420,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7438,25 +7438,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X41" t="n">
-        <v>1541.946313197755</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y41" t="n">
-        <v>1141.009640145845</v>
+        <v>1623.385174251526</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J42" t="n">
-        <v>208.7594707336913</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K42" t="n">
-        <v>352.4814632649828</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L42" t="n">
-        <v>564.4940477866401</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M42" t="n">
-        <v>819.7422655456081</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N42" t="n">
-        <v>1087.581645304757</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O42" t="n">
-        <v>1323.603334058737</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P42" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.694781664777</v>
+        <v>376.2109352737609</v>
       </c>
       <c r="C43" t="n">
-        <v>916.6014092264938</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="D43" t="n">
-        <v>757.1067645494038</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="E43" t="n">
-        <v>596.1959494177233</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F43" t="n">
-        <v>431.5648235283147</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G43" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I43" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L43" t="n">
-        <v>506.8233170565552</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M43" t="n">
-        <v>958.0335354424358</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N43" t="n">
-        <v>1396.967762018482</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O43" t="n">
-        <v>1802.555103535984</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P43" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T43" t="n">
-        <v>1779.199851161183</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U43" t="n">
-        <v>1779.199851161183</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V43" t="n">
-        <v>1779.199851161183</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.130186670057</v>
+        <v>1026.990202419357</v>
       </c>
       <c r="X43" t="n">
-        <v>1500.130186670057</v>
+        <v>788.6463402790406</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.394488058822</v>
+        <v>563.9106416678053</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1532.368531364313</v>
+        <v>1273.840894808869</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.243940677583</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D44" t="n">
-        <v>717.7800107706439</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E44" t="n">
         <v>461.5168489923811</v>
@@ -7675,25 +7675,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V44" t="n">
-        <v>1942.589711028803</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W44" t="n">
-        <v>1942.589711028803</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.589711028803</v>
+        <v>1273.840894808869</v>
       </c>
       <c r="Y44" t="n">
-        <v>1942.589711028803</v>
+        <v>1273.840894808869</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606839</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505472</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>287.4527398817693</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K45" t="n">
-        <v>431.1747324130608</v>
+        <v>629.1681251475052</v>
       </c>
       <c r="L45" t="n">
-        <v>643.1873169347181</v>
+        <v>841.1807096691625</v>
       </c>
       <c r="M45" t="n">
-        <v>898.4355346936861</v>
+        <v>1096.42892742813</v>
       </c>
       <c r="N45" t="n">
-        <v>1399.455191901287</v>
+        <v>1364.26830718728</v>
       </c>
       <c r="O45" t="n">
-        <v>1635.476880655266</v>
+        <v>1600.289995941259</v>
       </c>
       <c r="P45" t="n">
-        <v>1817.075202091449</v>
+        <v>1781.888317377442</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.251596225539</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.5013510001849</v>
+        <v>1045.322869217471</v>
       </c>
       <c r="C46" t="n">
-        <v>490.5013510001849</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="D46" t="n">
-        <v>331.0067063230949</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E46" t="n">
-        <v>170.0958911914144</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F46" t="n">
-        <v>170.0958911914144</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606872</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606872</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
-        <v>109.0965795970513</v>
+        <v>62.6091642990925</v>
       </c>
       <c r="K46" t="n">
-        <v>177.3984040230868</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L46" t="n">
-        <v>590.8921830977228</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M46" t="n">
-        <v>697.1360519693178</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N46" t="n">
-        <v>1136.070278545364</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O46" t="n">
-        <v>1541.657620062866</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P46" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7836,22 +7836,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1789.276972616749</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U46" t="n">
-        <v>1506.53632130334</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V46" t="n">
-        <v>1232.650576242862</v>
+        <v>1750.436102242958</v>
       </c>
       <c r="W46" t="n">
-        <v>953.5809117517367</v>
+        <v>1471.366437751832</v>
       </c>
       <c r="X46" t="n">
-        <v>715.2370496114202</v>
+        <v>1233.022575611516</v>
       </c>
       <c r="Y46" t="n">
-        <v>490.5013510001849</v>
+        <v>1233.022575611516</v>
       </c>
     </row>
   </sheetData>
@@ -8221,7 +8221,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L5" t="n">
-        <v>11.64353751452478</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.40627785259142</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R6" t="n">
         <v>41.35075441487444</v>
@@ -8385,16 +8385,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N7" t="n">
-        <v>15.24329362330671</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O7" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P7" t="n">
-        <v>26.95620607407936</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.40353443947923</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550555</v>
       </c>
       <c r="K10" t="n">
         <v>13.42337108707596</v>
       </c>
       <c r="L10" t="n">
-        <v>42.47240797954507</v>
+        <v>4.943103517458709</v>
       </c>
       <c r="M10" t="n">
-        <v>3.878875624559498</v>
+        <v>39.89184455282417</v>
       </c>
       <c r="N10" t="n">
-        <v>36.58517114411582</v>
+        <v>38.1015066779375</v>
       </c>
       <c r="O10" t="n">
-        <v>46.36772583379049</v>
+        <v>8.838421371704122</v>
       </c>
       <c r="P10" t="n">
-        <v>52.89017993052271</v>
+        <v>15.36087546843636</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.37552856090304</v>
+        <v>70.90483302298939</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951478</v>
+        <v>14.70128436951476</v>
       </c>
       <c r="J12" t="n">
-        <v>164.549773460932</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>155.2919483512119</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>9.257825109720272</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.82588865527179</v>
+        <v>12.82588865527176</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391878</v>
+        <v>7.35249528239185</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>181.4890873650639</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>174.4355917281193</v>
+        <v>110.9606915189516</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.8584291375003</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>187.5041632199792</v>
       </c>
       <c r="P13" t="n">
-        <v>199.9282760679554</v>
+        <v>199.9282760679556</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>9.150849970123446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951478</v>
+        <v>14.70128436951479</v>
       </c>
       <c r="J15" t="n">
-        <v>164.5497734609317</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>131.8031147446368</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>32.74665871629514</v>
       </c>
       <c r="R15" t="n">
-        <v>12.82588865527179</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>7.352495282391892</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>74.49670607040812</v>
+        <v>181.4890873650639</v>
       </c>
       <c r="M16" t="n">
         <v>178.0868137369347</v>
@@ -9099,13 +9099,13 @@
         <v>175.8584291375</v>
       </c>
       <c r="O16" t="n">
-        <v>187.5041632199789</v>
+        <v>138.8172297048871</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123481</v>
+        <v>9.150849970123495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.07563925852784</v>
+        <v>14.0756392585279</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7104590826217</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>94.43411111759957</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>83.06853227076687</v>
       </c>
       <c r="O18" t="n">
-        <v>14.79218430574579</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.69765525512769</v>
+        <v>11.6976552551278</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>207.9517360747205</v>
+        <v>207.9517360747197</v>
       </c>
       <c r="L19" t="n">
-        <v>189.5769645447251</v>
+        <v>189.5769645447243</v>
       </c>
       <c r="M19" t="n">
-        <v>61.70324004447315</v>
+        <v>49.87953975009542</v>
       </c>
       <c r="N19" t="n">
-        <v>183.8799671611306</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>195.7036674555072</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.875171543823228</v>
+        <v>7.875171543823349</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>14.0756392585279</v>
       </c>
       <c r="J21" t="n">
-        <v>94.65217999628717</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>177.5026433883663</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>11.6976552551278</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>207.9517360747205</v>
+        <v>207.9517360747197</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0473252182308</v>
+        <v>189.5769645447243</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>208.4385633225504</v>
+        <v>125.9089239960551</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.0847972377573</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
@@ -9810,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>78.12986811408976</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>216.6127447722219</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>360.9067319962717</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="L27" t="n">
-        <v>35.54230779192594</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>91.1925429289382</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>248.2539792410427</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5356337863142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.2831846665764</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>284.3999407442643</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>198.3751789009466</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>237.0533600188528</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>108.3233934631249</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>23.93045033463876</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>193.3810032134884</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>291.9263360464071</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>280.2962713894261</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>23.93045033463807</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.3193388037196</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,10 +10983,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>5.167781085619893</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.93045033463853</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>81.42525534725914</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>403.8820839126365</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.167781085619893</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>180.6788644359215</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>360.9067319962717</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>35.54230779192585</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9569851494533</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>89.5883933965944</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>368.5896634057582</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>368.4940403177762</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>367.3634792376644</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -23041,7 +23041,7 @@
         <v>262.6401406086985</v>
       </c>
       <c r="I8" t="n">
-        <v>23.70993248691514</v>
+        <v>56.76574385712079</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23117,7 +23117,7 @@
         <v>105.5215890835718</v>
       </c>
       <c r="H9" t="n">
-        <v>66.18988692910271</v>
+        <v>28.66058246701635</v>
       </c>
       <c r="I9" t="n">
         <v>6.816603577462478</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.97656768171652</v>
+        <v>99.50587214380288</v>
       </c>
       <c r="T9" t="n">
-        <v>118.6124124025168</v>
+        <v>123.0859054943975</v>
       </c>
       <c r="U9" t="n">
         <v>195.3510775903192</v>
       </c>
       <c r="V9" t="n">
-        <v>178.5186003666909</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>137.0334175804098</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -23181,7 +23181,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>131.8531342518143</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23196,7 +23196,7 @@
         <v>165.2436954710736</v>
       </c>
       <c r="H10" t="n">
-        <v>145.1401126844127</v>
+        <v>112.084301314207</v>
       </c>
       <c r="I10" t="n">
         <v>105.1325298071908</v>
@@ -23235,19 +23235,19 @@
         <v>235.7253416736098</v>
       </c>
       <c r="U10" t="n">
-        <v>242.4226328794704</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V10" t="n">
         <v>233.6175831477869</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2231564760087</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>198.4311190568271</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>184.9590371630366</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.0768591468907</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.263550451753</v>
+        <v>197.2635504517528</v>
       </c>
       <c r="G11" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100388</v>
       </c>
       <c r="H11" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383112</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380177</v>
+        <v>31.90177044380174</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3786899365281</v>
+        <v>163.2478004120011</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>160.3661403820869</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23339,22 +23339,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>78.59885166972936</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>137.0679032217638</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -23405,7 +23405,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724633</v>
+        <v>96.43258009724632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.38567239618433</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.93269702790721</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>60.37960003122728</v>
+        <v>60.37960003122706</v>
       </c>
       <c r="V13" t="n">
-        <v>77.76147178668944</v>
+        <v>51.59033013577678</v>
       </c>
       <c r="W13" t="n">
-        <v>56.72241037211811</v>
+        <v>56.72241037211788</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>216.2371506872889</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23500,22 +23500,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E14" t="n">
-        <v>211.1547046073184</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517531</v>
+        <v>357.5909888451246</v>
       </c>
       <c r="G14" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100391</v>
       </c>
       <c r="H14" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380177</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V14" t="n">
-        <v>126.7826216427879</v>
+        <v>126.782621642788</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23579,19 +23579,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>154.7508334693185</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>31.62675659902371</v>
+        <v>89.51386342370155</v>
       </c>
     </row>
     <row r="16">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>115.925317738284</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>53.69606108753941</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.43258009724633</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.38567239618433</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T16" t="n">
-        <v>14.93269702790727</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U16" t="n">
-        <v>60.37960003122734</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>56.72241037211822</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>335.6878124574963</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,10 +23740,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>207.6926282304545</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>186.9107242998072</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>403.2170775650451</v>
@@ -23752,7 +23752,7 @@
         <v>293.2166537951705</v>
       </c>
       <c r="I17" t="n">
-        <v>30.5924265713284</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>101.4806031161402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>213.751193211259</v>
       </c>
       <c r="U17" t="n">
-        <v>24.46658930095882</v>
+        <v>24.46658930095978</v>
       </c>
       <c r="V17" t="n">
-        <v>116.429795490842</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>150.013314230142</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>166.7275802266959</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.1583452125301</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.68171585877849</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.75877655668977</v>
       </c>
       <c r="T18" t="n">
-        <v>154.6775891563252</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>195.3271799672243</v>
       </c>
       <c r="V18" t="n">
-        <v>141.7869444820228</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>51.44945314037277</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -23910,7 +23910,7 @@
         <v>142.4325511641973</v>
       </c>
       <c r="I19" t="n">
-        <v>95.97443828482626</v>
+        <v>95.97443828482631</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.70067559925886</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.3966478723306</v>
       </c>
       <c r="T19" t="n">
-        <v>234.4241618019317</v>
+        <v>4.514778175890569</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9353265346843</v>
+        <v>77.43114143686731</v>
       </c>
       <c r="V19" t="n">
-        <v>67.83064235760281</v>
+        <v>41.23750398383214</v>
       </c>
       <c r="W19" t="n">
-        <v>46.36958422017227</v>
+        <v>46.36958422017324</v>
       </c>
       <c r="X19" t="n">
-        <v>6.051039892871358</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>203.6147827700268</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>176.1139611538205</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>170.509906981828</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>180.2874297022302</v>
+        <v>293.0150409318134</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>186.9107242998082</v>
       </c>
       <c r="G20" t="n">
         <v>403.2170775650451</v>
@@ -23989,7 +23989,7 @@
         <v>293.2166537951705</v>
       </c>
       <c r="I20" t="n">
-        <v>30.59242657132841</v>
+        <v>30.59242657132852</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>101.4806031161402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.751193211259</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3759729270009</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>116.429795490843</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>32.26372949255125</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
@@ -24062,10 +24062,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1583452125301</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.68171585877847</v>
+        <v>62.68171585877849</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>92.75877655668977</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.6775891563252</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>105.8615785607699</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.3156438933733</v>
       </c>
       <c r="H22" t="n">
         <v>142.4325511641973</v>
       </c>
       <c r="I22" t="n">
-        <v>95.97443828482626</v>
+        <v>95.97443828482631</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.7006755992588</v>
+        <v>55.70067559925886</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.3966478723306</v>
       </c>
       <c r="T22" t="n">
-        <v>234.4241618019317</v>
+        <v>4.514778175890598</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9353265346843</v>
+        <v>50.0259429086432</v>
       </c>
       <c r="V22" t="n">
-        <v>49.61761686241968</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24195,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>408.7298730949543</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>283.9738944557603</v>
@@ -24265,16 +24265,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>32.33336448222951</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>13.52006875223866</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.591435989946859</v>
       </c>
       <c r="S25" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>179.3613359641647</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>230.4449557888982</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.16623198602815</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>61.19245727736292</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>61.0759348471916</v>
+        <v>345.536165262082</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3037726831681</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>1.42648370929922</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>163.8168110157173</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>208.5503318619622</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>358.5629560184066</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -24970,7 +24970,7 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3037726831681</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>159.8319589056025</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>78.61382561785203</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>119.2392387370887</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>223.7507262110354</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3037726831681</v>
@@ -25216,13 +25216,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.4603064629564</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
-        <v>83.80004204681616</v>
+        <v>31.00403692575925</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>262.3007039394092</v>
+        <v>368.1920531960891</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.3939882519838</v>
+        <v>67.59008136074885</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>135.7356791430499</v>
+        <v>72.08948396942628</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
         <v>283.9738944557603</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
         <v>209.8004861190321</v>
@@ -25693,7 +25693,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>27.52161562632639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.0167314893013</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>12.01935274981156</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>156.4962831677921</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
         <v>209.8004861190321</v>
@@ -25924,13 +25924,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>41.94819332283288</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>36.22097251133704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>167918.1555173896</v>
+        <v>167918.1555173897</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>313369.2910414274</v>
+        <v>313369.2910414276</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>313369.2910414274</v>
+        <v>313369.2910414273</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>321788.252045555</v>
+        <v>321788.2520455543</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>321788.2520455549</v>
+        <v>321788.2520455542</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>545967.2419489549</v>
+        <v>545967.2419489548</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>545967.2419489548</v>
+        <v>545967.241948955</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>545967.241948955</v>
+        <v>545967.2419489549</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>45760.25350365141</v>
       </c>
       <c r="C2" t="n">
-        <v>45760.2535036514</v>
+        <v>45760.25350365141</v>
       </c>
       <c r="D2" t="n">
-        <v>56177.14773567644</v>
+        <v>56177.14773567643</v>
       </c>
       <c r="E2" t="n">
         <v>105050.9142481637</v>
       </c>
       <c r="F2" t="n">
-        <v>105050.9142481636</v>
+        <v>105050.9142481637</v>
       </c>
       <c r="G2" t="n">
-        <v>107813.3884350233</v>
+        <v>107813.3884350231</v>
       </c>
       <c r="H2" t="n">
-        <v>107813.3884350233</v>
+        <v>107813.3884350231</v>
       </c>
       <c r="I2" t="n">
+        <v>181341.8264785712</v>
+      </c>
+      <c r="J2" t="n">
+        <v>181341.8264785712</v>
+      </c>
+      <c r="K2" t="n">
         <v>181341.8264785713</v>
-      </c>
-      <c r="J2" t="n">
-        <v>181341.8264785714</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181341.8264785712</v>
       </c>
       <c r="L2" t="n">
         <v>181341.8264785712</v>
       </c>
       <c r="M2" t="n">
-        <v>181341.8264785711</v>
+        <v>181341.8264785712</v>
       </c>
       <c r="N2" t="n">
-        <v>181341.8264785712</v>
+        <v>181341.8264785713</v>
       </c>
       <c r="O2" t="n">
         <v>181341.8264785712</v>
@@ -26374,19 +26374,19 @@
         <v>57189.49358343505</v>
       </c>
       <c r="E3" t="n">
-        <v>183237.9388045753</v>
+        <v>183237.9388045755</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9405.921194458122</v>
+        <v>9405.921194457334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>242430.0581552957</v>
+        <v>242430.0581552965</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9498.329195613927</v>
+        <v>9498.329195613913</v>
       </c>
       <c r="M3" t="n">
-        <v>45361.91955960492</v>
+        <v>45361.91955960493</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2491.41796629193</v>
+        <v>2491.417966291711</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>9297.11021454971</v>
       </c>
       <c r="D4" t="n">
-        <v>5661.161207551214</v>
+        <v>5661.161207551213</v>
       </c>
       <c r="E4" t="n">
-        <v>10079.26090376315</v>
+        <v>10079.26090376316</v>
       </c>
       <c r="F4" t="n">
         <v>10079.26090376315</v>
       </c>
       <c r="G4" t="n">
-        <v>10526.71839251314</v>
+        <v>10526.7183925131</v>
       </c>
       <c r="H4" t="n">
-        <v>10526.71839251314</v>
+        <v>10526.71839251309</v>
       </c>
       <c r="I4" t="n">
-        <v>22529.70278345436</v>
+        <v>22529.70278345435</v>
       </c>
       <c r="J4" t="n">
         <v>22529.70278345436</v>
       </c>
       <c r="K4" t="n">
+        <v>22529.70278345436</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22529.70278345436</v>
+      </c>
+      <c r="M4" t="n">
         <v>22529.70278345434</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22529.70278345435</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22529.70278345435</v>
       </c>
       <c r="N4" t="n">
         <v>22529.70278345436</v>
@@ -26459,7 +26459,7 @@
         <v>22529.70278345436</v>
       </c>
       <c r="P4" t="n">
-        <v>22529.70278345437</v>
+        <v>22529.70278345436</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>39949.45546466367</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.45015162827</v>
+        <v>20886.45015162829</v>
       </c>
       <c r="F5" t="n">
         <v>20886.45015162826</v>
       </c>
       <c r="G5" t="n">
-        <v>21700.07277433774</v>
+        <v>21700.07277433766</v>
       </c>
       <c r="H5" t="n">
-        <v>21700.07277433774</v>
+        <v>21700.07277433766</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194157</v>
@@ -26496,13 +26496,13 @@
         <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194157</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="N5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127395.5373500618</v>
+        <v>-128770.1376498106</v>
       </c>
       <c r="C6" t="n">
-        <v>-45.52034404884034</v>
+        <v>-1420.120643797554</v>
       </c>
       <c r="D6" t="n">
-        <v>-46622.96251997349</v>
+        <v>-47939.69118509987</v>
       </c>
       <c r="E6" t="n">
-        <v>-109152.735611803</v>
+        <v>-110197.9433518603</v>
       </c>
       <c r="F6" t="n">
-        <v>74085.20319277223</v>
+        <v>73039.99545271552</v>
       </c>
       <c r="G6" t="n">
-        <v>66180.6760737143</v>
+        <v>65150.81541247391</v>
       </c>
       <c r="H6" t="n">
-        <v>75586.59726817247</v>
+        <v>74556.73660693121</v>
       </c>
       <c r="I6" t="n">
-        <v>-127003.2571921204</v>
+        <v>-127624.6265308982</v>
       </c>
       <c r="J6" t="n">
-        <v>115426.8009631755</v>
+        <v>114805.4316243983</v>
       </c>
       <c r="K6" t="n">
-        <v>115426.8009631753</v>
+        <v>114805.4316243984</v>
       </c>
       <c r="L6" t="n">
-        <v>105928.4717675613</v>
+        <v>105307.1024287844</v>
       </c>
       <c r="M6" t="n">
-        <v>70064.88140357027</v>
+        <v>69443.51206479345</v>
       </c>
       <c r="N6" t="n">
-        <v>115426.8009631753</v>
+        <v>114805.4316243984</v>
       </c>
       <c r="O6" t="n">
-        <v>112935.3829968834</v>
+        <v>112314.0136581066</v>
       </c>
       <c r="P6" t="n">
-        <v>115426.8009631752</v>
+        <v>114805.4316243983</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>185.324484099487</v>
       </c>
       <c r="E3" t="n">
-        <v>345.7528191377622</v>
+        <v>345.7528191377624</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377622</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="G3" t="n">
-        <v>354.2010206364394</v>
+        <v>354.2010206364386</v>
       </c>
       <c r="H3" t="n">
-        <v>354.2010206364393</v>
+        <v>354.2010206364386</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040984</v>
@@ -26798,31 +26798,31 @@
         <v>37.52930446208636</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740963</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="H4" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="K4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="L4" t="n">
         <v>506.080461825859</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>506.0804618258588</v>
-      </c>
-      <c r="L4" t="n">
-        <v>506.0804618258589</v>
-      </c>
-      <c r="M4" t="n">
-        <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
         <v>506.0804618258589</v>
@@ -26968,19 +26968,19 @@
         <v>53.16560184487545</v>
       </c>
       <c r="E3" t="n">
-        <v>160.4283350382752</v>
+        <v>160.4283350382754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3.726490535893108e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>8.448201498677189</v>
+        <v>8.448201498676497</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>224.4976331676591</v>
+        <v>224.4976331676598</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>37.52930446208636</v>
       </c>
       <c r="E4" t="n">
-        <v>182.0272530120099</v>
+        <v>182.0272530120101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.35282615194589</v>
+        <v>10.35282615194498</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>276.1710781998169</v>
+        <v>276.1710781998179</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.52930446208647</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="M4" t="n">
-        <v>182.0272530120099</v>
+        <v>182.02725301201</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.35282615194589</v>
+        <v>10.35282615194498</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>37.52930446208636</v>
       </c>
       <c r="M4" t="n">
-        <v>182.0272530120099</v>
+        <v>182.0272530120101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.35282615194589</v>
+        <v>10.35282615194498</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H5" t="n">
-        <v>5.441094081970008</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I5" t="n">
         <v>20.48263440450618</v>
@@ -31293,7 +31293,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L5" t="n">
-        <v>83.84186054832004</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -31363,7 +31363,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I6" t="n">
-        <v>9.787237978289628</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J6" t="n">
         <v>26.85692908157158</v>
@@ -31387,13 +31387,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.2863406522473</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R6" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S6" t="n">
-        <v>5.280121380644146</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T6" t="n">
         <v>1.14579257350932</v>
@@ -31442,7 +31442,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I7" t="n">
-        <v>7.166911188495984</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J7" t="n">
         <v>16.84917421793629</v>
@@ -31463,7 +31463,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P7" t="n">
-        <v>28.82363556582542</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q7" t="n">
         <v>19.95599122044634</v>
@@ -31472,7 +31472,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S7" t="n">
-        <v>4.153255365280167</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T7" t="n">
         <v>1.018273355076515</v>
@@ -31606,13 +31606,13 @@
         <v>37.66108218855707</v>
       </c>
       <c r="K9" t="n">
-        <v>64.36878802915861</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>86.55177910702929</v>
+        <v>70.70607462222708</v>
       </c>
       <c r="M9" t="n">
-        <v>70.70487847115835</v>
+        <v>95.09358820050377</v>
       </c>
       <c r="N9" t="n">
         <v>90.72269785583634</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.389961081960852</v>
+        <v>1.389961081960853</v>
       </c>
       <c r="H11" t="n">
-        <v>14.23493893063158</v>
+        <v>14.23493893063159</v>
       </c>
       <c r="I11" t="n">
-        <v>53.5864746122958</v>
+        <v>53.58647461229583</v>
       </c>
       <c r="J11" t="n">
         <v>117.971209380075</v>
       </c>
       <c r="K11" t="n">
-        <v>176.8082619794779</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L11" t="n">
-        <v>219.3462834415373</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M11" t="n">
-        <v>244.0650038328586</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N11" t="n">
-        <v>248.0142307569799</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482317</v>
+        <v>234.1928052482318</v>
       </c>
       <c r="P11" t="n">
-        <v>199.8781410373231</v>
+        <v>199.8781410373232</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.1001597896</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472344</v>
+        <v>87.3121428147235</v>
       </c>
       <c r="S11" t="n">
-        <v>31.67373815518295</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283633</v>
+        <v>6.084554636283636</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1111968865568682</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510357</v>
+        <v>0.7436947430510361</v>
       </c>
       <c r="H12" t="n">
-        <v>7.18252554472974</v>
+        <v>7.182525544729745</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048522</v>
+        <v>25.60527953048524</v>
       </c>
       <c r="J12" t="n">
-        <v>70.26284412308053</v>
+        <v>70.26284412308058</v>
       </c>
       <c r="K12" t="n">
-        <v>120.0903919074999</v>
+        <v>120.0903919075</v>
       </c>
       <c r="L12" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4352864300804</v>
+        <v>188.4352864300805</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551902</v>
+        <v>193.4226077551903</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223225</v>
+        <v>176.9438979223226</v>
       </c>
       <c r="P12" t="n">
-        <v>142.0130777322631</v>
+        <v>142.0130777322632</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.93198158665501</v>
+        <v>94.93198158665507</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013362</v>
+        <v>46.17431045013365</v>
       </c>
       <c r="S12" t="n">
-        <v>13.81380367026813</v>
+        <v>13.81380367026814</v>
       </c>
       <c r="T12" t="n">
-        <v>2.997611705543428</v>
+        <v>2.997611705543429</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704184</v>
+        <v>0.04892728572704187</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484236</v>
+        <v>0.6234886902484239</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208715</v>
+        <v>5.543381264208719</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947078</v>
+        <v>18.75000533947079</v>
       </c>
       <c r="J13" t="n">
-        <v>44.08065040056354</v>
+        <v>44.08065040056357</v>
       </c>
       <c r="K13" t="n">
-        <v>72.43804964886228</v>
+        <v>72.43804964886233</v>
       </c>
       <c r="L13" t="n">
-        <v>92.69576400293381</v>
+        <v>92.69576400293388</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594151</v>
+        <v>97.73468623594157</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501564</v>
+        <v>95.4107738450157</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711357</v>
+        <v>88.12729232711362</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604566</v>
+        <v>75.40812304604572</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980209</v>
+        <v>52.20867568980212</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517002</v>
+        <v>28.03431874517004</v>
       </c>
       <c r="S13" t="n">
-        <v>10.86570744732934</v>
+        <v>10.86570744732935</v>
       </c>
       <c r="T13" t="n">
-        <v>2.663997131061445</v>
+        <v>2.663997131061447</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.03400847401355044</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960852</v>
+        <v>1.389961081960851</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063158</v>
+        <v>14.23493893063157</v>
       </c>
       <c r="I14" t="n">
-        <v>53.5864746122958</v>
+        <v>53.58647461229577</v>
       </c>
       <c r="J14" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K14" t="n">
-        <v>176.8082619794779</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L14" t="n">
         <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328586</v>
+        <v>244.0650038328585</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569799</v>
+        <v>248.0142307569798</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482317</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P14" t="n">
-        <v>199.8781410373231</v>
+        <v>199.878141037323</v>
       </c>
       <c r="Q14" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472344</v>
+        <v>87.31214281472342</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518295</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T14" t="n">
-        <v>6.084554636283633</v>
+        <v>6.08455463628363</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568681</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510357</v>
+        <v>0.7436947430510354</v>
       </c>
       <c r="H15" t="n">
-        <v>7.18252554472974</v>
+        <v>7.182525544729738</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048522</v>
+        <v>25.60527953048521</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308053</v>
+        <v>70.26284412308051</v>
       </c>
       <c r="K15" t="n">
         <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300804</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551902</v>
+        <v>193.4226077551901</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223225</v>
+        <v>176.9438979223224</v>
       </c>
       <c r="P15" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665501</v>
+        <v>94.93198158665498</v>
       </c>
       <c r="R15" t="n">
-        <v>46.17431045013362</v>
+        <v>46.1743104501336</v>
       </c>
       <c r="S15" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543428</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704184</v>
+        <v>0.04892728572704182</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484236</v>
+        <v>0.6234886902484233</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208715</v>
+        <v>5.543381264208713</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947078</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056354</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886228</v>
+        <v>72.43804964886226</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293381</v>
+        <v>92.69576400293379</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594151</v>
+        <v>97.73468623594147</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501564</v>
+        <v>95.41077384501561</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711357</v>
+        <v>88.12729232711354</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604566</v>
+        <v>75.40812304604565</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980209</v>
+        <v>52.20867568980207</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517002</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S16" t="n">
         <v>10.86570744732934</v>
@@ -32189,7 +32189,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.0340084740135504</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.423923701051011</v>
+        <v>1.423923701051008</v>
       </c>
       <c r="H17" t="n">
-        <v>14.58275860338867</v>
+        <v>14.58275860338864</v>
       </c>
       <c r="I17" t="n">
-        <v>54.89581848476917</v>
+        <v>54.89581848476904</v>
       </c>
       <c r="J17" t="n">
-        <v>120.8537442220784</v>
+        <v>120.8537442220781</v>
       </c>
       <c r="K17" t="n">
-        <v>181.1284344875677</v>
+        <v>181.1284344875673</v>
       </c>
       <c r="L17" t="n">
-        <v>224.7058394536077</v>
+        <v>224.7058394536072</v>
       </c>
       <c r="M17" t="n">
-        <v>250.0285425721736</v>
+        <v>250.028542572173</v>
       </c>
       <c r="N17" t="n">
-        <v>254.0742657877848</v>
+        <v>254.0742657877842</v>
       </c>
       <c r="O17" t="n">
-        <v>239.9151244854588</v>
+        <v>239.9151244854583</v>
       </c>
       <c r="P17" t="n">
-        <v>204.7620081157619</v>
+        <v>204.7620081157615</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.7677405718725</v>
+        <v>153.7677405718722</v>
       </c>
       <c r="R17" t="n">
-        <v>89.44554718614567</v>
+        <v>89.44554718614548</v>
       </c>
       <c r="S17" t="n">
-        <v>32.44766133769996</v>
+        <v>32.44766133769988</v>
       </c>
       <c r="T17" t="n">
-        <v>6.233226001350806</v>
+        <v>6.233226001350792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1139138960840809</v>
+        <v>0.1139138960840806</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7618663462746055</v>
+        <v>0.7618663462746037</v>
       </c>
       <c r="H18" t="n">
-        <v>7.358024975862638</v>
+        <v>7.358024975862621</v>
       </c>
       <c r="I18" t="n">
-        <v>26.23092464147216</v>
+        <v>26.2309246414721</v>
       </c>
       <c r="J18" t="n">
-        <v>71.97966212763718</v>
+        <v>71.97966212763703</v>
       </c>
       <c r="K18" t="n">
-        <v>123.0247073280357</v>
+        <v>123.0247073280355</v>
       </c>
       <c r="L18" t="n">
-        <v>165.421901194405</v>
+        <v>165.4219011944047</v>
       </c>
       <c r="M18" t="n">
-        <v>193.0395562468594</v>
+        <v>193.039556246859</v>
       </c>
       <c r="N18" t="n">
-        <v>198.148738893587</v>
+        <v>198.1487388935865</v>
       </c>
       <c r="O18" t="n">
-        <v>181.2673845892917</v>
+        <v>181.2673845892913</v>
       </c>
       <c r="P18" t="n">
-        <v>145.4830569478236</v>
+        <v>145.4830569478232</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.25157079814088</v>
+        <v>97.25157079814065</v>
       </c>
       <c r="R18" t="n">
-        <v>47.30254385027771</v>
+        <v>47.30254385027761</v>
       </c>
       <c r="S18" t="n">
-        <v>14.15133323014452</v>
+        <v>14.15133323014449</v>
       </c>
       <c r="T18" t="n">
-        <v>3.070856018536676</v>
+        <v>3.070856018536669</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0501227859391188</v>
+        <v>0.05012278593911869</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6387231519673495</v>
+        <v>0.6387231519673482</v>
       </c>
       <c r="H19" t="n">
-        <v>5.678829478400622</v>
+        <v>5.678829478400608</v>
       </c>
       <c r="I19" t="n">
-        <v>19.20814715189085</v>
+        <v>19.2081471518908</v>
       </c>
       <c r="J19" t="n">
-        <v>45.15772684409161</v>
+        <v>45.15772684409151</v>
       </c>
       <c r="K19" t="n">
-        <v>74.20801711038841</v>
+        <v>74.20801711038825</v>
       </c>
       <c r="L19" t="n">
-        <v>94.96071297521851</v>
+        <v>94.9607129752183</v>
       </c>
       <c r="M19" t="n">
-        <v>100.1227573579364</v>
+        <v>100.1227573579362</v>
       </c>
       <c r="N19" t="n">
-        <v>97.74206197333093</v>
+        <v>97.74206197333072</v>
       </c>
       <c r="O19" t="n">
-        <v>90.28061424353049</v>
+        <v>90.28061424353029</v>
       </c>
       <c r="P19" t="n">
-        <v>77.25066194339651</v>
+        <v>77.25066194339632</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.48435411610234</v>
+        <v>53.48435411610222</v>
       </c>
       <c r="R19" t="n">
-        <v>28.71931554209555</v>
+        <v>28.71931554209548</v>
       </c>
       <c r="S19" t="n">
-        <v>11.13120256655826</v>
+        <v>11.13120256655824</v>
       </c>
       <c r="T19" t="n">
-        <v>2.72908983113322</v>
+        <v>2.729089831133214</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03483944465276456</v>
+        <v>0.03483944465276449</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.423923701051011</v>
+        <v>1.423923701051008</v>
       </c>
       <c r="H20" t="n">
-        <v>14.58275860338867</v>
+        <v>14.58275860338864</v>
       </c>
       <c r="I20" t="n">
-        <v>54.89581848476916</v>
+        <v>54.89581848476904</v>
       </c>
       <c r="J20" t="n">
-        <v>120.8537442220784</v>
+        <v>120.8537442220781</v>
       </c>
       <c r="K20" t="n">
-        <v>181.1284344875677</v>
+        <v>181.1284344875673</v>
       </c>
       <c r="L20" t="n">
-        <v>224.7058394536076</v>
+        <v>224.7058394536072</v>
       </c>
       <c r="M20" t="n">
-        <v>250.0285425721735</v>
+        <v>250.028542572173</v>
       </c>
       <c r="N20" t="n">
-        <v>254.0742657877848</v>
+        <v>254.0742657877842</v>
       </c>
       <c r="O20" t="n">
-        <v>239.9151244854587</v>
+        <v>239.9151244854583</v>
       </c>
       <c r="P20" t="n">
-        <v>204.7620081157619</v>
+        <v>204.7620081157615</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.7677405718725</v>
+        <v>153.7677405718722</v>
       </c>
       <c r="R20" t="n">
-        <v>89.44554718614566</v>
+        <v>89.44554718614548</v>
       </c>
       <c r="S20" t="n">
-        <v>32.44766133769995</v>
+        <v>32.44766133769988</v>
       </c>
       <c r="T20" t="n">
-        <v>6.233226001350805</v>
+        <v>6.233226001350792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1139138960840809</v>
+        <v>0.1139138960840806</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7618663462746053</v>
+        <v>0.7618663462746037</v>
       </c>
       <c r="H21" t="n">
-        <v>7.358024975862636</v>
+        <v>7.358024975862621</v>
       </c>
       <c r="I21" t="n">
-        <v>26.23092464147216</v>
+        <v>26.2309246414721</v>
       </c>
       <c r="J21" t="n">
-        <v>71.97966212763717</v>
+        <v>71.97966212763703</v>
       </c>
       <c r="K21" t="n">
-        <v>123.0247073280357</v>
+        <v>123.0247073280355</v>
       </c>
       <c r="L21" t="n">
-        <v>165.421901194405</v>
+        <v>165.4219011944047</v>
       </c>
       <c r="M21" t="n">
-        <v>193.0395562468594</v>
+        <v>193.039556246859</v>
       </c>
       <c r="N21" t="n">
-        <v>198.1487388935869</v>
+        <v>198.1487388935865</v>
       </c>
       <c r="O21" t="n">
-        <v>181.2673845892917</v>
+        <v>181.2673845892913</v>
       </c>
       <c r="P21" t="n">
-        <v>145.4830569478235</v>
+        <v>145.4830569478232</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.25157079814085</v>
+        <v>97.25157079814065</v>
       </c>
       <c r="R21" t="n">
-        <v>47.30254385027771</v>
+        <v>47.30254385027761</v>
       </c>
       <c r="S21" t="n">
-        <v>14.15133323014452</v>
+        <v>14.15133323014449</v>
       </c>
       <c r="T21" t="n">
-        <v>3.070856018536675</v>
+        <v>3.070856018536669</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05012278593911879</v>
+        <v>0.05012278593911869</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6387231519673495</v>
+        <v>0.6387231519673482</v>
       </c>
       <c r="H22" t="n">
-        <v>5.678829478400621</v>
+        <v>5.678829478400608</v>
       </c>
       <c r="I22" t="n">
-        <v>19.20814715189084</v>
+        <v>19.2081471518908</v>
       </c>
       <c r="J22" t="n">
-        <v>45.15772684409161</v>
+        <v>45.15772684409151</v>
       </c>
       <c r="K22" t="n">
-        <v>74.20801711038841</v>
+        <v>74.20801711038825</v>
       </c>
       <c r="L22" t="n">
-        <v>94.9607129752185</v>
+        <v>94.9607129752183</v>
       </c>
       <c r="M22" t="n">
-        <v>100.1227573579364</v>
+        <v>100.1227573579362</v>
       </c>
       <c r="N22" t="n">
-        <v>97.74206197333092</v>
+        <v>97.74206197333072</v>
       </c>
       <c r="O22" t="n">
-        <v>90.28061424353048</v>
+        <v>90.28061424353029</v>
       </c>
       <c r="P22" t="n">
-        <v>77.25066194339649</v>
+        <v>77.25066194339632</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.48435411610233</v>
+        <v>53.48435411610222</v>
       </c>
       <c r="R22" t="n">
-        <v>28.71931554209554</v>
+        <v>28.71931554209548</v>
       </c>
       <c r="S22" t="n">
-        <v>11.13120256655826</v>
+        <v>11.13120256655824</v>
       </c>
       <c r="T22" t="n">
-        <v>2.72908983113322</v>
+        <v>2.729089831133214</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03483944465276455</v>
+        <v>0.03483944465276449</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.543005244543217</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>30.43725529618024</v>
+        <v>14.59155081137803</v>
       </c>
       <c r="M9" t="n">
-        <v>13.14059473274093</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="N9" t="n">
         <v>37.52930446208636</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>36.01296892826468</v>
+      </c>
+      <c r="N10" t="n">
         <v>37.52930446208636</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>36.01296892826468</v>
-      </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>37.52930446208636</v>
-      </c>
-      <c r="P10" t="n">
-        <v>37.52930446208636</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676702</v>
+        <v>44.64761804676709</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626074</v>
+        <v>87.67187230626085</v>
       </c>
       <c r="L11" t="n">
-        <v>123.8608853786925</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7747793758132</v>
+        <v>150.7747793758133</v>
       </c>
       <c r="N11" t="n">
-        <v>155.1019400003606</v>
+        <v>155.1019400003607</v>
       </c>
       <c r="O11" t="n">
-        <v>141.0030296224485</v>
+        <v>141.0030296224487</v>
       </c>
       <c r="P11" t="n">
-        <v>106.2287777564389</v>
+        <v>106.2287777564391</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.066355390448</v>
+        <v>60.06635539044811</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>183.4433787840125</v>
+        <v>18.89360532308057</v>
       </c>
       <c r="K12" t="n">
-        <v>64.26460912288454</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3618281836313</v>
+        <v>114.6196532933517</v>
       </c>
       <c r="M12" t="n">
-        <v>130.8710026916629</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N12" t="n">
-        <v>140.2292143614402</v>
+        <v>140.2292143614403</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223225</v>
+        <v>119.1924189223226</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945938</v>
+        <v>87.75344272945946</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181629</v>
+        <v>38.23936308181635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.18768008979545</v>
+        <v>20.18768008979551</v>
       </c>
       <c r="L13" t="n">
-        <v>219.5565574740963</v>
+        <v>38.06747010903238</v>
       </c>
       <c r="M13" t="n">
-        <v>215.9053354652808</v>
+        <v>152.4304352561131</v>
       </c>
       <c r="N13" t="n">
-        <v>43.6981283365962</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411724</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="P13" t="n">
-        <v>219.5565574740963</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.3986047832474</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676702</v>
+        <v>44.64761804676698</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626074</v>
+        <v>87.67187230626068</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786925</v>
+        <v>123.8608853786924</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758132</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003606</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O14" t="n">
         <v>141.0030296224485</v>
@@ -35667,7 +35667,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.066355390448</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>183.4433787840122</v>
+        <v>18.8936053230805</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288454</v>
+        <v>64.26460912288448</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836313</v>
+        <v>105.3618281836312</v>
       </c>
       <c r="M15" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614402</v>
+        <v>140.2292143614401</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223225</v>
+        <v>119.1924189223224</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945938</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181629</v>
+        <v>70.98602179811141</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.30544777956407</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979545</v>
+        <v>20.18768008979544</v>
       </c>
       <c r="L16" t="n">
-        <v>112.5641761794404</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="M16" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="N16" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="O16" t="n">
-        <v>219.5565574740962</v>
+        <v>170.8696239590043</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614088</v>
+        <v>19.62828140614086</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>47.53015288877044</v>
+        <v>47.53015288877017</v>
       </c>
       <c r="K17" t="n">
-        <v>91.99204481435062</v>
+        <v>91.99204481435019</v>
       </c>
       <c r="L17" t="n">
-        <v>129.2204413907629</v>
+        <v>129.2204413907623</v>
       </c>
       <c r="M17" t="n">
-        <v>156.7383181151282</v>
+        <v>156.7383181151276</v>
       </c>
       <c r="N17" t="n">
-        <v>161.1619750311655</v>
+        <v>161.1619750311649</v>
       </c>
       <c r="O17" t="n">
-        <v>146.7253488596756</v>
+        <v>146.7253488596751</v>
       </c>
       <c r="P17" t="n">
-        <v>111.1126448348778</v>
+        <v>111.1126448348773</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.73393617272046</v>
+        <v>63.73393617272012</v>
       </c>
       <c r="R17" t="n">
-        <v>2.133404371422159</v>
+        <v>2.13340437142196</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61042332763717</v>
+        <v>20.61042332763702</v>
       </c>
       <c r="K18" t="n">
-        <v>229.9093836260421</v>
+        <v>67.19892454342008</v>
       </c>
       <c r="L18" t="n">
-        <v>109.307377383556</v>
+        <v>109.3073773835556</v>
       </c>
       <c r="M18" t="n">
-        <v>135.475272508442</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="N18" t="n">
-        <v>144.955345499837</v>
+        <v>228.0238777706034</v>
       </c>
       <c r="O18" t="n">
-        <v>138.3080898950375</v>
+        <v>123.5159055892913</v>
       </c>
       <c r="P18" t="n">
-        <v>91.22342194501982</v>
+        <v>91.22342194501948</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.55895229330216</v>
+        <v>40.55895229330193</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.38252422309214</v>
+        <v>59.38252422309204</v>
       </c>
       <c r="K19" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="M19" t="n">
-        <v>105.5610549036295</v>
+        <v>93.73735460925158</v>
       </c>
       <c r="N19" t="n">
-        <v>229.9093836260421</v>
+        <v>46.02941646491128</v>
       </c>
       <c r="O19" t="n">
-        <v>34.20571617053417</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="P19" t="n">
-        <v>21.47082030349173</v>
+        <v>21.47082030349154</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>47.53015288877043</v>
+        <v>47.53015288877017</v>
       </c>
       <c r="K20" t="n">
-        <v>91.99204481435059</v>
+        <v>91.99204481435019</v>
       </c>
       <c r="L20" t="n">
-        <v>129.2204413907628</v>
+        <v>129.2204413907623</v>
       </c>
       <c r="M20" t="n">
-        <v>156.7383181151281</v>
+        <v>156.7383181151276</v>
       </c>
       <c r="N20" t="n">
-        <v>161.1619750311654</v>
+        <v>161.1619750311649</v>
       </c>
       <c r="O20" t="n">
-        <v>146.7253488596756</v>
+        <v>146.7253488596751</v>
       </c>
       <c r="P20" t="n">
-        <v>111.1126448348777</v>
+        <v>111.1126448348773</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.73393617272043</v>
+        <v>63.73393617272012</v>
       </c>
       <c r="R20" t="n">
-        <v>2.133404371422145</v>
+        <v>2.13340437142196</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.689819175509935</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>115.2626033239243</v>
+        <v>20.61042332763702</v>
       </c>
       <c r="K21" t="n">
-        <v>67.19892454342033</v>
+        <v>67.19892454342008</v>
       </c>
       <c r="L21" t="n">
-        <v>109.3073773835559</v>
+        <v>109.3073773835556</v>
       </c>
       <c r="M21" t="n">
-        <v>135.475272508442</v>
+        <v>135.4752725084415</v>
       </c>
       <c r="N21" t="n">
-        <v>144.9553454998369</v>
+        <v>144.9553454998365</v>
       </c>
       <c r="O21" t="n">
-        <v>123.5159055892917</v>
+        <v>123.5159055892913</v>
       </c>
       <c r="P21" t="n">
-        <v>91.22342194501979</v>
+        <v>91.22342194501948</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.55895229330213</v>
+        <v>218.0615956816682</v>
       </c>
       <c r="R21" t="n">
-        <v>77.16064421657053</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.38252422309213</v>
+        <v>59.38252422309204</v>
       </c>
       <c r="K22" t="n">
-        <v>229.9093836260421</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="L22" t="n">
-        <v>147.3797442995478</v>
+        <v>229.9093836260411</v>
       </c>
       <c r="M22" t="n">
-        <v>43.85781485915638</v>
+        <v>43.85781485915616</v>
       </c>
       <c r="N22" t="n">
-        <v>46.02941646491148</v>
+        <v>46.02941646491128</v>
       </c>
       <c r="O22" t="n">
-        <v>34.20571617053415</v>
+        <v>34.20571617053397</v>
       </c>
       <c r="P22" t="n">
-        <v>229.9093836260421</v>
+        <v>147.3797442995466</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.6742832095476</v>
+        <v>119.6742832095475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
         <v>312.361855595743</v>
@@ -36451,13 +36451,13 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>238.4057462161408</v>
+        <v>388.7250850198602</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q24" t="n">
-        <v>272.2831751509797</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R24" t="n">
         <v>107.1416677554515</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K25" t="n">
         <v>277.3555737492421</v>
@@ -36530,13 +36530,13 @@
         <v>107.9797223519805</v>
       </c>
       <c r="O25" t="n">
-        <v>169.5567187188988</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>287.0461308406732</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
-        <v>506.080461825859</v>
+        <v>295.493068633307</v>
       </c>
       <c r="L27" t="n">
-        <v>249.6964335713778</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M27" t="n">
         <v>257.8264825848162</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>182.6193935337472</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P28" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1737298295874</v>
+        <v>295.493068633307</v>
       </c>
       <c r="L30" t="n">
         <v>214.1541257794518</v>
       </c>
       <c r="M30" t="n">
-        <v>506.0804618258588</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>506.0804618258588</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
         <v>238.4057462161408</v>
@@ -36934,7 +36934,7 @@
         <v>102.1983779132224</v>
       </c>
       <c r="R30" t="n">
-        <v>39.56655295032967</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M31" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N31" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
-        <v>375.8267913490733</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
-        <v>333.9661976574595</v>
+        <v>268.8085649693979</v>
       </c>
       <c r="Q31" t="n">
         <v>26.0239710644933</v>
@@ -37147,22 +37147,22 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>382.2270898484401</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794518</v>
       </c>
       <c r="M33" t="n">
-        <v>506.0804618258589</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
         <v>270.5448280395447</v>
       </c>
       <c r="O33" t="n">
-        <v>238.4057462161408</v>
+        <v>388.7250850198604</v>
       </c>
       <c r="P33" t="n">
         <v>183.4326479153362</v>
@@ -37171,7 +37171,7 @@
         <v>102.1983779132224</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
-        <v>216.3031158151053</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178641</v>
+        <v>49.95442139913205</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>259.6131578247533</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
-        <v>506.0804618258589</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M36" t="n">
         <v>257.8264825848162</v>
@@ -37405,10 +37405,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K37" t="n">
         <v>68.9917418444803</v>
@@ -37478,13 +37478,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7231219942351</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
         <v>70.43338606845131</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.5734258178641</v>
+        <v>49.95442139913136</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077103</v>
       </c>
       <c r="J39" t="n">
         <v>312.361855595743</v>
@@ -37642,7 +37642,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.517716716942</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R39" t="n">
         <v>107.1416677554515</v>
@@ -37703,10 +37703,10 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>417.6704839137738</v>
+        <v>105.6876475902795</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37721,7 +37721,7 @@
         <v>70.43338606845131</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.95442139913182</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
-        <v>147.6574099585241</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37879,10 +37879,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>506.0804618258589</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R42" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
-        <v>105.6876475902795</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
@@ -37955,10 +37955,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
-        <v>70.43338606845131</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
-        <v>246.9110190471864</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>506.080461825859</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794518</v>
@@ -38107,7 +38107,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N45" t="n">
-        <v>506.080461825859</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
         <v>238.4057462161408</v>
@@ -38116,7 +38116,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.1983779132224</v>
+        <v>137.7406857051483</v>
       </c>
       <c r="R45" t="n">
         <v>107.1416677554515</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.30317439493186</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K46" t="n">
         <v>68.9917418444803</v>
@@ -38183,7 +38183,7 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N46" t="n">
         <v>443.3679056323699</v>
@@ -38192,10 +38192,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>333.9661976574595</v>
+        <v>160.0217794650457</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
